--- a/URS/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/URS/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -90,10 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>交易進行記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>未齊件</t>
   </si>
   <si>
@@ -127,9 +123,6 @@
     <t>首次應繳日</t>
   </si>
   <si>
-    <t>借新還舊</t>
-  </si>
-  <si>
     <t>上次繳息日,繳息迄日</t>
   </si>
   <si>
@@ -161,10 +154,6 @@
   </si>
   <si>
     <t>聯貸案序號</t>
-  </si>
-  <si>
-    <t>Y:是 N:否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>週期基準</t>
@@ -482,12 +471,6 @@
   </si>
   <si>
     <t>RenewFlag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1STEP TX -&gt; 0   
-2STEP TX -&gt; 5 6
-3STEP TX -&gt; 1 2 3 4   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1026,6 +1009,24 @@
   </si>
   <si>
     <t>PieceCodeSecondAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常 1.展期 2.借新還舊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易進行記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>展期/借新還舊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1STEP TX -&gt; 0   
+2STEP TX -&gt; 1 2
+3STEP TX -&gt; 1 2 3 4   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1402,6 +1403,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1419,21 +1435,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1741,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1757,70 +1758,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="50"/>
+      <c r="A1" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="55"/>
       <c r="C1" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="48"/>
+      <c r="A3" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="53"/>
       <c r="C3" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="47"/>
+      <c r="A4" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="52"/>
       <c r="C4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="48"/>
+      <c r="A5" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="53"/>
       <c r="C5" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="29"/>
@@ -1828,10 +1829,10 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="51"/>
+      <c r="A6" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="56"/>
       <c r="C6" s="6"/>
       <c r="D6" s="37"/>
       <c r="E6" s="33"/>
@@ -1839,10 +1840,10 @@
       <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="47"/>
+      <c r="A7" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="52"/>
       <c r="C7" s="6"/>
       <c r="D7" s="37"/>
       <c r="E7" s="35"/>
@@ -1877,13 +1878,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E9" s="12">
         <v>7</v>
@@ -1897,13 +1898,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E10" s="12">
         <v>3</v>
@@ -1917,13 +1918,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E11" s="12">
         <v>3</v>
@@ -1937,13 +1938,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="E12" s="18">
         <v>4</v>
@@ -1957,13 +1958,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E13" s="18">
         <v>3</v>
@@ -1977,20 +1978,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E14" s="12">
         <v>2</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1999,13 +2000,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" s="12">
         <v>6</v>
@@ -2021,13 +2022,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E16" s="12">
         <v>6</v>
@@ -2043,13 +2044,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
@@ -2065,13 +2066,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E18" s="12">
         <v>6</v>
@@ -2087,20 +2088,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E19" s="12">
         <v>1</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2109,13 +2110,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E20" s="12">
         <v>2</v>
@@ -2129,20 +2130,20 @@
         <v>13</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E21" s="12">
         <v>1</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2151,13 +2152,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E22" s="12">
         <v>3</v>
@@ -2171,13 +2172,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E23" s="12">
         <v>16</v>
@@ -2193,13 +2194,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E24" s="12">
         <v>16</v>
@@ -2215,13 +2216,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E25" s="12">
         <v>8</v>
@@ -2235,13 +2236,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E26" s="12">
         <v>2</v>
@@ -2255,13 +2256,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E27" s="12">
         <v>2</v>
@@ -2275,13 +2276,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E28" s="12">
         <v>3</v>
@@ -2295,13 +2296,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E29" s="12">
         <v>8</v>
@@ -2315,20 +2316,20 @@
         <v>22</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E30" s="40">
         <v>1</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="43" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
@@ -2337,20 +2338,20 @@
         <v>23</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E31" s="12">
         <v>1</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2359,20 +2360,20 @@
         <v>24</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E32" s="18">
         <v>1</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2381,13 +2382,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E33" s="12">
         <v>2</v>
@@ -2401,13 +2402,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E34" s="12">
         <v>2</v>
@@ -2421,13 +2422,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E35" s="12">
         <v>3</v>
@@ -2441,13 +2442,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E36" s="12">
         <v>3</v>
@@ -2461,13 +2462,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E37" s="18">
         <v>3</v>
@@ -2481,13 +2482,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E38" s="12">
         <v>8</v>
@@ -2501,13 +2502,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E39" s="12">
         <v>8</v>
@@ -2521,20 +2522,20 @@
         <v>32</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E40" s="12">
         <v>8</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2543,20 +2544,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E41" s="12">
         <v>8</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2565,13 +2566,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E42" s="12">
         <v>16</v>
@@ -2587,13 +2588,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E43" s="12">
         <v>3</v>
@@ -2607,13 +2608,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E44" s="12">
         <v>8</v>
@@ -2627,13 +2628,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E45" s="12">
         <v>2</v>
@@ -2647,13 +2648,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E46" s="12">
         <v>8</v>
@@ -2667,13 +2668,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E47" s="12">
         <v>8</v>
@@ -2687,13 +2688,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E48" s="18">
         <v>8</v>
@@ -2707,13 +2708,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E49" s="18">
         <v>8</v>
@@ -2727,13 +2728,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E50" s="12">
         <v>16</v>
@@ -2749,13 +2750,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E51" s="12">
         <v>16</v>
@@ -2771,20 +2772,20 @@
         <v>44</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E52" s="12">
         <v>1</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2793,20 +2794,20 @@
         <v>45</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E53" s="12">
         <v>1</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="25" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="243" x14ac:dyDescent="0.3">
@@ -2815,65 +2816,65 @@
         <v>46</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E54" s="12">
         <v>1</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="46">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B55" s="47" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="52">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B55" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="48">
+        <v>1</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="46">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B56" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="D55" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="E55" s="54">
-        <v>1</v>
-      </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="52">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B56" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="C56" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="D56" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="54">
+      <c r="C56" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="48">
         <v>16</v>
       </c>
-      <c r="F56" s="54">
+      <c r="F56" s="48">
         <v>2</v>
       </c>
-      <c r="G56" s="56"/>
+      <c r="G56" s="50"/>
     </row>
     <row r="57" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
@@ -2881,20 +2882,20 @@
         <v>49</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E57" s="12">
         <v>2</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="25" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2903,13 +2904,13 @@
         <v>50</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E58" s="12">
         <v>3</v>
@@ -2923,20 +2924,20 @@
         <v>51</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E59" s="12">
         <v>2</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2945,13 +2946,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E60" s="12">
         <v>100</v>
@@ -2965,13 +2966,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E61" s="12">
         <v>10</v>
@@ -2985,13 +2986,13 @@
         <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E62" s="12">
         <v>8</v>
@@ -3005,20 +3006,20 @@
         <v>55</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E63" s="12">
         <v>1</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3027,20 +3028,20 @@
         <v>56</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E64" s="12">
         <v>1</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="25" t="s">
-        <v>128</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -3049,20 +3050,20 @@
         <v>57</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E65" s="3">
         <v>8</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -3071,13 +3072,13 @@
         <v>58</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E66" s="3">
         <v>4</v>
@@ -3091,13 +3092,13 @@
         <v>59</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E67" s="3">
         <v>6</v>
@@ -3111,13 +3112,13 @@
         <v>60</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E68" s="3">
         <v>8</v>
@@ -3131,20 +3132,20 @@
         <v>61</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E69" s="3">
         <v>3</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -3153,13 +3154,13 @@
         <v>62</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E70" s="3">
         <v>4</v>
@@ -3173,13 +3174,13 @@
         <v>63</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E71" s="3">
         <v>14</v>
@@ -3193,13 +3194,13 @@
         <v>64</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E72" s="3">
         <v>60</v>
@@ -3213,13 +3214,13 @@
         <v>65</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E73" s="3">
         <v>7</v>
@@ -3233,13 +3234,13 @@
         <v>66</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E74" s="3">
         <v>40</v>
@@ -3253,13 +3254,13 @@
         <v>67</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E75" s="3">
         <v>8</v>
@@ -3273,13 +3274,13 @@
         <v>68</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E76" s="12">
         <v>8</v>
@@ -3293,13 +3294,13 @@
         <v>69</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E77" s="18">
         <v>4</v>
@@ -3313,13 +3314,13 @@
         <v>70</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -3331,13 +3332,13 @@
         <v>71</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E79" s="12">
         <v>6</v>
@@ -3351,13 +3352,13 @@
         <v>72</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -3369,13 +3370,13 @@
         <v>73</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E81" s="12">
         <v>6</v>
@@ -3421,7 +3422,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
@@ -3432,90 +3433,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3543,13 +3544,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3557,10 +3558,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3568,10 +3569,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3579,10 +3580,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3590,10 +3591,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3601,10 +3602,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3612,10 +3613,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3623,10 +3624,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3634,10 +3635,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3645,10 +3646,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3656,10 +3657,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3667,10 +3668,10 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3678,10 +3679,10 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
@@ -3689,10 +3690,10 @@
         <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
